--- a/templates/Advanced CATI starter kit sample form (non-case management)_TPS.xlsx
+++ b/templates/Advanced CATI starter kit sample form (non-case management)_TPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehrab Ali\Documents\GitHub\catigen\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B21D328-85C4-4913-8642-472DE2FB1132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DA9A30-7783-4944-93C9-FF8C471F42EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="1028">
   <si>
     <t>comments</t>
   </si>
@@ -1315,37 +1315,7 @@
     <t>selected(${availability}, '1')</t>
   </si>
   <si>
-    <t>work_status_now</t>
-  </si>
-  <si>
-    <t>name_consent</t>
-  </si>
-  <si>
-    <t>Name:</t>
-  </si>
-  <si>
     <t>integer</t>
-  </si>
-  <si>
-    <t>educationlevel</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>Between 90-120 minutes</t>
-  </si>
-  <si>
-    <t>Between 60-90 minutes</t>
-  </si>
-  <si>
-    <t>Between 30-60 minutes</t>
-  </si>
-  <si>
-    <t>Less than 30 minutes</t>
   </si>
   <si>
     <t>likert</t>
@@ -2336,277 +2306,6 @@
   </si>
   <si>
     <t>sub_district_code</t>
-  </si>
-  <si>
-    <t>নাম:</t>
-  </si>
-  <si>
-    <t>Refused to answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">উত্তর দিতে রাজি হয়নি
-</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>পুরুষ</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>মহিলা</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>I am _____________ years old (in years)</t>
-  </si>
-  <si>
-    <t>আমার বয়স ______ বছর</t>
-  </si>
-  <si>
-    <t>Would rather not say</t>
-  </si>
-  <si>
-    <t>উত্তর বলবেন না</t>
-  </si>
-  <si>
-    <t>Primary school (classes I to V)</t>
-  </si>
-  <si>
-    <t>প্রাইমারী স্কুল (১ম থেকে ৫ম শ্রেণী)</t>
-  </si>
-  <si>
-    <t>Secondary school (classes VI to X)</t>
-  </si>
-  <si>
-    <t>মাধ্যমিক স্কুল (৬ষ্ঠ থেকে ১০ শ্রেণী)</t>
-  </si>
-  <si>
-    <t>Higher secondary school (classes XI to XII)</t>
-  </si>
-  <si>
-    <t>উচ্চ মাধ্যমিক স্কুল (১১শ থেকে ১২শ শ্রেণী)</t>
-  </si>
-  <si>
-    <t>Diploma/Technical/Vocational degree</t>
-  </si>
-  <si>
-    <t>ডিপ্লোমা/কারিগরী/ভোকেশনাল ডিগ্রী</t>
-  </si>
-  <si>
-    <t>Bachelor’s degree</t>
-  </si>
-  <si>
-    <t>অনার্স</t>
-  </si>
-  <si>
-    <t>Master’s degree</t>
-  </si>
-  <si>
-    <t>মাস্টার্স</t>
-  </si>
-  <si>
-    <t>Doctorate</t>
-  </si>
-  <si>
-    <t>পি.এইচ.ডি/ডক্টরেট</t>
-  </si>
-  <si>
-    <t>No formal education</t>
-  </si>
-  <si>
-    <t>কোন আনুষ্ঠানিক শিক্ষা নেই</t>
-  </si>
-  <si>
-    <t>Grade 1</t>
-  </si>
-  <si>
-    <t>১ম শ্রেণী</t>
-  </si>
-  <si>
-    <t>Grade 2</t>
-  </si>
-  <si>
-    <t>২য় শ্রেণী</t>
-  </si>
-  <si>
-    <t>Grade 3</t>
-  </si>
-  <si>
-    <t>৩য় শ্রেণী</t>
-  </si>
-  <si>
-    <t>Grade 4</t>
-  </si>
-  <si>
-    <t>৪র্থ শ্রেণী</t>
-  </si>
-  <si>
-    <t>Grade 5</t>
-  </si>
-  <si>
-    <t>৫ম শ্রেণী</t>
-  </si>
-  <si>
-    <t>Grade 6</t>
-  </si>
-  <si>
-    <t>৬ষ্ঠ শ্রেণী</t>
-  </si>
-  <si>
-    <t>Grade 7</t>
-  </si>
-  <si>
-    <t>৭ম শ্রেণী</t>
-  </si>
-  <si>
-    <t>Grade 8</t>
-  </si>
-  <si>
-    <t>৮ম শ্রেণী</t>
-  </si>
-  <si>
-    <t>Grade 9</t>
-  </si>
-  <si>
-    <t>৯ম শ্রেণী</t>
-  </si>
-  <si>
-    <t>Grade 10</t>
-  </si>
-  <si>
-    <t>১০ম শ্রেণী</t>
-  </si>
-  <si>
-    <t>Grade 11</t>
-  </si>
-  <si>
-    <t>একাদশ শ্রেণী</t>
-  </si>
-  <si>
-    <t>Grade 12</t>
-  </si>
-  <si>
-    <t>দ্বাদশ শ্রেণী</t>
-  </si>
-  <si>
-    <t>Mathematics or Science</t>
-  </si>
-  <si>
-    <t>গণিত বা বিজ্ঞান</t>
-  </si>
-  <si>
-    <t>English or other language</t>
-  </si>
-  <si>
-    <t>ইংরেজী বা অন্য ভাষা</t>
-  </si>
-  <si>
-    <t>trait</t>
-  </si>
-  <si>
-    <t>Very much like me</t>
-  </si>
-  <si>
-    <t>বেশিরভাগই আমার মতো</t>
-  </si>
-  <si>
-    <t>Mostly like me</t>
-  </si>
-  <si>
-    <t>অনেকটাই আমার মতো</t>
-  </si>
-  <si>
-    <t>Somewhat like me</t>
-  </si>
-  <si>
-    <t>কিছুটা আমার মতো</t>
-  </si>
-  <si>
-    <t>Not much like me</t>
-  </si>
-  <si>
-    <t>খুব একটা আমার মতো না</t>
-  </si>
-  <si>
-    <t>Not like me at all</t>
-  </si>
-  <si>
-    <t>একদমই আমার মত না</t>
-  </si>
-  <si>
-    <t>ext_time</t>
-  </si>
-  <si>
-    <t>৯০-১২০ মিনিটের মধ্যে</t>
-  </si>
-  <si>
-    <t>৬০-৯০ মিনিটের মধ্যে</t>
-  </si>
-  <si>
-    <t>৩০-৬০ মিনিটের মধ্যে</t>
-  </si>
-  <si>
-    <t>৩০ মিনিটের কম</t>
-  </si>
-  <si>
-    <t>১২০</t>
-  </si>
-  <si>
-    <t>১১০</t>
-  </si>
-  <si>
-    <t>১০০</t>
-  </si>
-  <si>
-    <t>৯০</t>
-  </si>
-  <si>
-    <t>৮০</t>
-  </si>
-  <si>
-    <t>৭০</t>
-  </si>
-  <si>
-    <t>৬০</t>
-  </si>
-  <si>
-    <t>৫০</t>
-  </si>
-  <si>
-    <t>৪০</t>
-  </si>
-  <si>
-    <t>৩০</t>
-  </si>
-  <si>
-    <t>২০</t>
-  </si>
-  <si>
-    <t>১০</t>
-  </si>
-  <si>
-    <t>attitude</t>
-  </si>
-  <si>
-    <t>সত্য</t>
-  </si>
-  <si>
-    <t>মিথ্যা</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I am not a teacher anymore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">আমি বর্তমানে শিক্ষক হিসেবে কাজ করছি না </t>
   </si>
   <si>
     <t>form_title</t>
@@ -5580,16 +5279,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF99BCE7"/>
-          <bgColor rgb="FF99BCE7"/>
+          <fgColor rgb="FFDBE5F1"/>
+          <bgColor rgb="FFDBE5F1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFDBE5F1"/>
-          <bgColor rgb="FFDBE5F1"/>
+          <fgColor rgb="FF99BCE7"/>
+          <bgColor rgb="FF99BCE7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5604,8 +5303,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFBA005D"/>
-          <bgColor rgb="FFBA005D"/>
+          <fgColor rgb="FFE7D480"/>
+          <bgColor rgb="FFE7D480"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDE8C6"/>
+          <bgColor rgb="FFDDE8C6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5620,16 +5327,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFDDE8C6"/>
-          <bgColor rgb="FFDDE8C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE7D480"/>
-          <bgColor rgb="FFE7D480"/>
+          <fgColor rgb="FFBA005D"/>
+          <bgColor rgb="FFBA005D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5644,8 +5343,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF2DBDA"/>
-          <bgColor rgb="FFF2DBDA"/>
+          <fgColor rgb="FFEAF1DD"/>
+          <bgColor rgb="FFEAF1DD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5660,8 +5359,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF1DD"/>
-          <bgColor rgb="FFEAF1DD"/>
+          <fgColor rgb="FFF2DBDA"/>
+          <bgColor rgb="FFF2DBDA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5694,94 +5393,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFF6969"/>
           <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEEB400"/>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEEB400"/>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFABF8F"/>
-          <bgColor rgb="FFFABF8F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB8CCE4"/>
-          <bgColor rgb="FFB8CCE4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF4685D2"/>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD6E3BC"/>
-          <bgColor rgb="FFD6E3BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC4BD97"/>
-          <bgColor rgb="FFC4BD97"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5843,6 +5454,94 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2F2F2"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD6E3BC"/>
+          <bgColor rgb="FFD6E3BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4685D2"/>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFABF8F"/>
+          <bgColor rgb="FFFABF8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC4BD97"/>
+          <bgColor rgb="FFC4BD97"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEEB400"/>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEEB400"/>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="none"/>
       </fill>
       <border>
@@ -5878,38 +5577,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFBB57"/>
-          <bgColor rgb="FFFFBB57"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD44B"/>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF6969"/>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2DBDA"/>
-          <bgColor rgb="FFF2DBDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFD8D8D8"/>
           <bgColor rgb="FFD8D8D8"/>
         </patternFill>
@@ -5926,6 +5593,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFBB57"/>
+          <bgColor rgb="FFFFBB57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
@@ -5934,16 +5609,24 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFE7D480"/>
-          <bgColor rgb="FFE7D480"/>
+          <fgColor rgb="FFFF6969"/>
+          <bgColor rgb="FFFF6969"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCCC0D9"/>
-          <bgColor rgb="FFCCC0D9"/>
+          <fgColor rgb="FFFFD44B"/>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2DBDA"/>
+          <bgColor rgb="FFF2DBDA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5968,6 +5651,22 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFDDE8C6"/>
           <bgColor rgb="FFDDE8C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE7D480"/>
+          <bgColor rgb="FFE7D480"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCC0D9"/>
+          <bgColor rgb="FFCCC0D9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6054,62 +5753,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC4BD97"/>
-          <bgColor rgb="FFC4BD97"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC2D69B"/>
-          <bgColor rgb="FFC2D69B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDCC97A"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE4E300"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB2A1C7"/>
-          <bgColor rgb="FFB2A1C7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE1AAA9"/>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FF9E004F"/>
           <bgColor rgb="FF9E004F"/>
         </patternFill>
@@ -6128,6 +5771,62 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFF6D9E"/>
           <bgColor rgb="FFFF6D9E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB2A1C7"/>
+          <bgColor rgb="FFB2A1C7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE4E300"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDCC97A"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC2D69B"/>
+          <bgColor rgb="FFC2D69B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC4BD97"/>
+          <bgColor rgb="FFC4BD97"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE1AAA9"/>
+          <bgColor rgb="FFE1AAA9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12253,10 +11952,10 @@
         <v>22</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
@@ -12395,21 +12094,21 @@
         <v>296</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F153" s="10"/>
       <c r="G153" s="10"/>
       <c r="H153" s="10" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="I153" s="10"/>
       <c r="J153" s="10"/>
       <c r="K153" s="10"/>
       <c r="L153" s="10" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="M153" s="10"/>
       <c r="N153" s="10"/>
@@ -12437,10 +12136,10 @@
         <v>322</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F154" s="10"/>
       <c r="G154" s="10"/>
@@ -12479,10 +12178,10 @@
         <v>296</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F155" s="10"/>
       <c r="G155" s="10"/>
@@ -12491,7 +12190,7 @@
       <c r="J155" s="10"/>
       <c r="K155" s="10"/>
       <c r="L155" s="10" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="M155" s="10"/>
       <c r="N155" s="10"/>
@@ -12516,25 +12215,25 @@
     </row>
     <row r="156" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C156" s="10" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="F156" s="10"/>
       <c r="G156" s="10"/>
       <c r="H156" s="10"/>
       <c r="I156" s="10" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="J156" s="10" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="K156" s="10" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="L156" s="10"/>
       <c r="M156" s="10"/>
@@ -12565,10 +12264,10 @@
         <v>44</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="F157" s="10"/>
       <c r="G157" s="10"/>
@@ -12582,7 +12281,7 @@
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
       <c r="Q157" s="10" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="R157" s="10"/>
       <c r="S157" s="10"/>
@@ -12605,10 +12304,10 @@
         <v>22</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
@@ -12643,7 +12342,7 @@
         <v>325</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
@@ -12679,13 +12378,13 @@
         <v>322</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
@@ -12693,7 +12392,7 @@
       <c r="J160" s="10"/>
       <c r="K160" s="10"/>
       <c r="L160" s="10" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="M160" s="10"/>
       <c r="N160" s="10" t="s">
@@ -12723,7 +12422,7 @@
         <v>325</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
@@ -12791,10 +12490,10 @@
         <v>296</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
@@ -12803,7 +12502,7 @@
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
       <c r="L163" s="6" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="M163" s="6"/>
       <c r="N163" s="6"/>
@@ -12831,13 +12530,13 @@
         <v>255</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
@@ -12857,7 +12556,7 @@
       <c r="T164" s="6"/>
       <c r="U164" s="6"/>
       <c r="V164" s="6" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="W164" s="6"/>
       <c r="X164" s="6"/>
@@ -12875,10 +12574,10 @@
         <v>44</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
@@ -12892,7 +12591,7 @@
       <c r="O165" s="6"/>
       <c r="P165" s="6"/>
       <c r="Q165" s="6" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="R165" s="6"/>
       <c r="S165" s="6"/>
@@ -12915,23 +12614,23 @@
         <v>279</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
       <c r="H166" s="6" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="J166" s="6"/>
       <c r="K166" s="6"/>
       <c r="L166" s="6" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="M166" s="6"/>
       <c r="N166" s="6" t="s">
@@ -12961,10 +12660,10 @@
         <v>22</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
@@ -12973,7 +12672,7 @@
       <c r="J167" s="6"/>
       <c r="K167" s="6"/>
       <c r="L167" s="6" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="M167" s="6"/>
       <c r="N167" s="6"/>
@@ -13001,10 +12700,10 @@
         <v>296</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
@@ -13015,7 +12714,7 @@
       <c r="J168" s="6"/>
       <c r="K168" s="6"/>
       <c r="L168" s="6" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="M168" s="6"/>
       <c r="N168" s="6"/>
@@ -13043,10 +12742,10 @@
         <v>371</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
@@ -13067,7 +12766,7 @@
       <c r="T169" s="6"/>
       <c r="U169" s="6"/>
       <c r="V169" s="6" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="W169" s="6"/>
       <c r="X169" s="6"/>
@@ -13085,10 +12784,10 @@
         <v>44</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
@@ -13102,7 +12801,7 @@
       <c r="O170" s="6"/>
       <c r="P170" s="6"/>
       <c r="Q170" s="6" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="R170" s="6"/>
       <c r="S170" s="6"/>
@@ -13125,10 +12824,10 @@
         <v>279</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
@@ -13165,7 +12864,7 @@
         <v>325</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
@@ -13201,10 +12900,10 @@
         <v>296</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
@@ -13213,7 +12912,7 @@
       <c r="J173" s="6"/>
       <c r="K173" s="6"/>
       <c r="L173" s="6" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="M173" s="6"/>
       <c r="N173" s="6"/>
@@ -13238,25 +12937,25 @@
     </row>
     <row r="174" spans="3:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C174" s="6" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
       <c r="I174" s="6" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="K174" s="6" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="L174" s="6"/>
       <c r="M174" s="6"/>
@@ -13287,10 +12986,10 @@
         <v>44</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
@@ -13304,7 +13003,7 @@
       <c r="O175" s="6"/>
       <c r="P175" s="6"/>
       <c r="Q175" s="6" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="R175" s="6"/>
       <c r="S175" s="6"/>
@@ -13327,10 +13026,10 @@
         <v>22</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
@@ -13365,7 +13064,7 @@
         <v>325</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
@@ -13401,7 +13100,7 @@
         <v>325</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
@@ -13469,10 +13168,10 @@
         <v>22</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
@@ -13481,7 +13180,7 @@
       <c r="J180" s="6"/>
       <c r="K180" s="6"/>
       <c r="L180" s="6" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="M180" s="6"/>
       <c r="N180" s="6"/>
@@ -13509,10 +13208,10 @@
         <v>22</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
@@ -13521,7 +13220,7 @@
       <c r="J181" s="6"/>
       <c r="K181" s="6"/>
       <c r="L181" s="6" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="M181" s="6"/>
       <c r="N181" s="6"/>
@@ -13581,7 +13280,7 @@
         <v>296</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
@@ -13593,7 +13292,7 @@
       <c r="J183" s="6"/>
       <c r="K183" s="6"/>
       <c r="L183" s="6" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="M183" s="6"/>
       <c r="N183" s="6"/>
@@ -13621,10 +13320,10 @@
         <v>22</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
@@ -13659,10 +13358,10 @@
         <v>22</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
@@ -13697,7 +13396,7 @@
         <v>325</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
@@ -13765,10 +13464,10 @@
         <v>296</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
@@ -13777,7 +13476,7 @@
       <c r="J188" s="6"/>
       <c r="K188" s="6"/>
       <c r="L188" s="6" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="M188" s="6"/>
       <c r="N188" s="6"/>
@@ -13802,16 +13501,16 @@
     </row>
     <row r="189" spans="3:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C189" s="6" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="G189" s="6"/>
       <c r="H189" s="6"/>
@@ -13844,28 +13543,28 @@
     </row>
     <row r="190" spans="3:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C190" s="6" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
       <c r="H190" s="6"/>
       <c r="I190" s="6" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="J190" s="6" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="K190" s="6" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="L190" s="6" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="M190" s="6"/>
       <c r="N190" s="6" t="s">
@@ -13892,24 +13591,24 @@
     </row>
     <row r="191" spans="3:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C191" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
       <c r="H191" s="6"/>
       <c r="I191" s="6" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="J191" s="6"/>
       <c r="K191" s="6"/>
       <c r="L191" s="6" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="M191" s="6"/>
       <c r="N191" s="6" t="s">
@@ -13939,10 +13638,10 @@
         <v>22</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
@@ -13951,7 +13650,7 @@
       <c r="J192" s="6"/>
       <c r="K192" s="6"/>
       <c r="L192" s="6" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="M192" s="6"/>
       <c r="N192" s="6" t="s">
@@ -13981,10 +13680,10 @@
         <v>44</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
@@ -13998,7 +13697,7 @@
       <c r="O193" s="6"/>
       <c r="P193" s="6"/>
       <c r="Q193" s="6" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="R193" s="6"/>
       <c r="S193" s="6"/>
@@ -14021,10 +13720,10 @@
         <v>44</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
@@ -14038,7 +13737,7 @@
       <c r="O194" s="6"/>
       <c r="P194" s="6"/>
       <c r="Q194" s="6" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="R194" s="6"/>
       <c r="S194" s="6"/>
@@ -14061,10 +13760,10 @@
         <v>44</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
@@ -14078,7 +13777,7 @@
       <c r="O195" s="6"/>
       <c r="P195" s="6"/>
       <c r="Q195" s="6" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="R195" s="6"/>
       <c r="S195" s="6"/>
@@ -14101,10 +13800,10 @@
         <v>44</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
@@ -14118,7 +13817,7 @@
       <c r="O196" s="6"/>
       <c r="P196" s="6"/>
       <c r="Q196" s="6" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="R196" s="6"/>
       <c r="S196" s="6"/>
@@ -14141,10 +13840,10 @@
         <v>44</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
@@ -14153,14 +13852,14 @@
       <c r="J197" s="6"/>
       <c r="K197" s="6"/>
       <c r="L197" s="6" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="M197" s="6"/>
       <c r="N197" s="6"/>
       <c r="O197" s="6"/>
       <c r="P197" s="6"/>
       <c r="Q197" s="6" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="R197" s="6"/>
       <c r="S197" s="6"/>
@@ -14183,10 +13882,10 @@
         <v>44</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
@@ -14200,7 +13899,7 @@
       <c r="O198" s="6"/>
       <c r="P198" s="6"/>
       <c r="Q198" s="6" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="R198" s="6"/>
       <c r="S198" s="6"/>
@@ -14223,10 +13922,10 @@
         <v>44</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
@@ -14263,10 +13962,10 @@
         <v>22</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
@@ -14301,10 +14000,10 @@
         <v>296</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
@@ -14341,10 +14040,10 @@
         <v>322</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
@@ -14378,16 +14077,16 @@
     </row>
     <row r="203" spans="3:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C203" s="6" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="G203" s="6"/>
       <c r="H203" s="6"/>
@@ -14395,7 +14094,7 @@
       <c r="J203" s="6"/>
       <c r="K203" s="6"/>
       <c r="L203" s="6" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="M203" s="6"/>
       <c r="N203" s="6" t="s">
@@ -14409,7 +14108,7 @@
       <c r="T203" s="6"/>
       <c r="U203" s="6"/>
       <c r="V203" s="6" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="W203" s="6"/>
       <c r="X203" s="6"/>
@@ -14427,10 +14126,10 @@
         <v>251</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
@@ -14439,7 +14138,7 @@
       <c r="J204" s="6"/>
       <c r="K204" s="6"/>
       <c r="L204" s="6" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="M204" s="6"/>
       <c r="N204" s="6"/>
@@ -14469,7 +14168,7 @@
         <v>44</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
@@ -14484,7 +14183,7 @@
       <c r="O205" s="6"/>
       <c r="P205" s="6"/>
       <c r="Q205" s="6" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="R205" s="6"/>
       <c r="S205" s="6"/>
@@ -14507,10 +14206,10 @@
         <v>44</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
@@ -14524,7 +14223,7 @@
       <c r="O206" s="6"/>
       <c r="P206" s="6"/>
       <c r="Q206" s="6" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="R206" s="6"/>
       <c r="S206" s="6"/>
@@ -14547,7 +14246,7 @@
         <v>296</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
@@ -14557,7 +14256,7 @@
       <c r="J207" s="6"/>
       <c r="K207" s="6"/>
       <c r="L207" s="6" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="M207" s="6"/>
       <c r="N207" s="6"/>
@@ -14585,15 +14284,15 @@
         <v>279</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
       <c r="H208" s="6" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="I208" s="6"/>
       <c r="J208" s="6"/>
@@ -14627,7 +14326,7 @@
         <v>325</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
@@ -14663,7 +14362,7 @@
         <v>335</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
@@ -14699,7 +14398,7 @@
         <v>325</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
@@ -14735,10 +14434,10 @@
         <v>296</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
@@ -14775,10 +14474,10 @@
         <v>322</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
@@ -14813,10 +14512,10 @@
         <v>44</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
@@ -14853,21 +14552,21 @@
         <v>279</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
       <c r="H215" s="6" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="I215" s="6"/>
       <c r="J215" s="6"/>
       <c r="K215" s="6"/>
       <c r="L215" s="6" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="M215" s="6"/>
       <c r="N215" s="6" t="s">
@@ -14897,7 +14596,7 @@
         <v>325</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
@@ -14933,7 +14632,7 @@
         <v>325</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
@@ -14998,19 +14697,19 @@
     </row>
     <row r="219" spans="3:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C219" s="6" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
       <c r="H219" s="6"/>
       <c r="I219" s="6" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="J219" s="6"/>
       <c r="K219" s="6"/>
@@ -15043,10 +14742,10 @@
         <v>44</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
@@ -15060,7 +14759,7 @@
       <c r="O220" s="6"/>
       <c r="P220" s="6"/>
       <c r="Q220" s="6" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="R220" s="6"/>
       <c r="S220" s="6"/>
@@ -15083,10 +14782,10 @@
         <v>22</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
@@ -15095,7 +14794,7 @@
       <c r="J221" s="6"/>
       <c r="K221" s="6"/>
       <c r="L221" s="6" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="M221" s="6"/>
       <c r="N221" s="6" t="s">
@@ -15125,10 +14824,10 @@
         <v>22</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="F222" s="6"/>
       <c r="G222" s="6"/>
@@ -15137,7 +14836,7 @@
       <c r="J222" s="6"/>
       <c r="K222" s="6"/>
       <c r="L222" s="6" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="M222" s="6"/>
       <c r="N222" s="6" t="s">
@@ -15167,10 +14866,10 @@
         <v>22</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -15179,7 +14878,7 @@
       <c r="J223" s="6"/>
       <c r="K223" s="6"/>
       <c r="L223" s="6" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="M223" s="6"/>
       <c r="N223" s="6" t="s">
@@ -15209,10 +14908,10 @@
         <v>22</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -15221,7 +14920,7 @@
       <c r="J224" s="6"/>
       <c r="K224" s="6"/>
       <c r="L224" s="6" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="M224" s="6"/>
       <c r="N224" s="6" t="s">
@@ -15251,10 +14950,10 @@
         <v>22</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
@@ -15263,7 +14962,7 @@
       <c r="J225" s="6"/>
       <c r="K225" s="6"/>
       <c r="L225" s="6" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="M225" s="6"/>
       <c r="N225" s="6" t="s">
@@ -15325,10 +15024,10 @@
         <v>296</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
@@ -15365,10 +15064,10 @@
         <v>22</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="F228" s="6"/>
       <c r="G228" s="6"/>
@@ -15406,7 +15105,7 @@
         <v>0</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="F229" s="6"/>
       <c r="G229" s="6"/>
@@ -15441,7 +15140,7 @@
         <v>325</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
@@ -15509,10 +15208,10 @@
         <v>22</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
@@ -15547,10 +15246,10 @@
         <v>22</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
@@ -15587,15 +15286,15 @@
         <v>22</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
       <c r="H234" s="6" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="I234" s="6"/>
       <c r="J234" s="6"/>
@@ -15659,10 +15358,10 @@
         <v>44</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
@@ -15676,7 +15375,7 @@
       <c r="O236" s="6"/>
       <c r="P236" s="6"/>
       <c r="Q236" s="6" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="R236" s="6"/>
       <c r="S236" s="6"/>
@@ -15699,10 +15398,10 @@
         <v>44</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
@@ -15711,14 +15410,14 @@
       <c r="J237" s="6"/>
       <c r="K237" s="6"/>
       <c r="L237" s="6" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="M237" s="6"/>
       <c r="N237" s="6"/>
       <c r="O237" s="6"/>
       <c r="P237" s="6"/>
       <c r="Q237" s="6" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="R237" s="6"/>
       <c r="S237" s="6"/>
@@ -15741,10 +15440,10 @@
         <v>44</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
@@ -15753,14 +15452,14 @@
       <c r="J238" s="6"/>
       <c r="K238" s="6"/>
       <c r="L238" s="6" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="M238" s="6"/>
       <c r="N238" s="6"/>
       <c r="O238" s="6"/>
       <c r="P238" s="6"/>
       <c r="Q238" s="6" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="R238" s="6"/>
       <c r="S238" s="6"/>
@@ -15783,10 +15482,10 @@
         <v>44</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="F239" s="6"/>
       <c r="G239" s="6"/>
@@ -15795,14 +15494,14 @@
       <c r="J239" s="6"/>
       <c r="K239" s="6"/>
       <c r="L239" s="6" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="M239" s="6"/>
       <c r="N239" s="6"/>
       <c r="O239" s="6"/>
       <c r="P239" s="6"/>
       <c r="Q239" s="6" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="R239" s="6"/>
       <c r="S239" s="6"/>
@@ -15825,10 +15524,10 @@
         <v>44</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F240" s="6"/>
       <c r="G240" s="6"/>
@@ -15837,14 +15536,14 @@
       <c r="J240" s="6"/>
       <c r="K240" s="6"/>
       <c r="L240" s="6" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="M240" s="6"/>
       <c r="N240" s="6"/>
       <c r="O240" s="6"/>
       <c r="P240" s="6"/>
       <c r="Q240" s="6" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="R240" s="6"/>
       <c r="S240" s="6"/>
@@ -15867,10 +15566,10 @@
         <v>44</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
@@ -15884,7 +15583,7 @@
       <c r="O241" s="6"/>
       <c r="P241" s="6"/>
       <c r="Q241" s="6" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="R241" s="6"/>
       <c r="S241" s="6"/>
@@ -15939,10 +15638,10 @@
         <v>44</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="F243" s="6"/>
       <c r="G243" s="6"/>
@@ -15958,7 +15657,7 @@
       <c r="O243" s="6"/>
       <c r="P243" s="6"/>
       <c r="Q243" s="6" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="R243" s="6"/>
       <c r="S243" s="6"/>
@@ -15981,10 +15680,10 @@
         <v>44</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="F244" s="6"/>
       <c r="G244" s="6"/>
@@ -16000,7 +15699,7 @@
       <c r="O244" s="6"/>
       <c r="P244" s="6"/>
       <c r="Q244" s="6" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="R244" s="6"/>
       <c r="S244" s="6"/>
@@ -16023,10 +15722,10 @@
         <v>44</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="F245" s="6"/>
       <c r="G245" s="6"/>
@@ -16042,7 +15741,7 @@
       <c r="O245" s="6"/>
       <c r="P245" s="6"/>
       <c r="Q245" s="6" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="R245" s="6"/>
       <c r="S245" s="6"/>
@@ -16065,10 +15764,10 @@
         <v>44</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="F246" s="6"/>
       <c r="G246" s="6"/>
@@ -16084,7 +15783,7 @@
       <c r="O246" s="6"/>
       <c r="P246" s="6"/>
       <c r="Q246" s="6" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="R246" s="6"/>
       <c r="S246" s="6"/>
@@ -16107,10 +15806,10 @@
         <v>44</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="F247" s="6"/>
       <c r="G247" s="6"/>
@@ -16126,7 +15825,7 @@
       <c r="O247" s="6"/>
       <c r="P247" s="6"/>
       <c r="Q247" s="6" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="R247" s="6"/>
       <c r="S247" s="6"/>
@@ -16181,10 +15880,10 @@
         <v>44</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="F249" s="6"/>
       <c r="G249" s="6"/>
@@ -16198,7 +15897,7 @@
       <c r="O249" s="6"/>
       <c r="P249" s="6"/>
       <c r="Q249" s="6" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="R249" s="6"/>
       <c r="S249" s="6"/>
@@ -16221,10 +15920,10 @@
         <v>44</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="F250" s="6"/>
       <c r="G250" s="6"/>
@@ -16238,7 +15937,7 @@
       <c r="O250" s="6"/>
       <c r="P250" s="6"/>
       <c r="Q250" s="6" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="R250" s="6"/>
       <c r="S250" s="6"/>
@@ -16261,10 +15960,10 @@
         <v>44</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="F251" s="6"/>
       <c r="G251" s="6"/>
@@ -16278,7 +15977,7 @@
       <c r="O251" s="6"/>
       <c r="P251" s="6"/>
       <c r="Q251" s="6" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="R251" s="6"/>
       <c r="S251" s="6"/>
@@ -16301,10 +16000,10 @@
         <v>44</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="F252" s="6"/>
       <c r="G252" s="6"/>
@@ -16318,7 +16017,7 @@
       <c r="O252" s="6"/>
       <c r="P252" s="6"/>
       <c r="Q252" s="6" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="R252" s="6"/>
       <c r="S252" s="6"/>
@@ -16341,10 +16040,10 @@
         <v>44</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="F253" s="6"/>
       <c r="G253" s="6"/>
@@ -16358,7 +16057,7 @@
       <c r="O253" s="6"/>
       <c r="P253" s="6"/>
       <c r="Q253" s="6" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="R253" s="6"/>
       <c r="S253" s="6"/>
@@ -16413,10 +16112,10 @@
         <v>44</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="F255" s="6"/>
       <c r="G255" s="6"/>
@@ -16430,7 +16129,7 @@
       <c r="O255" s="6"/>
       <c r="P255" s="6"/>
       <c r="Q255" s="6" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="R255" s="6"/>
       <c r="S255" s="6"/>
@@ -16485,10 +16184,10 @@
         <v>44</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="F257" s="6"/>
       <c r="G257" s="6"/>
@@ -16497,14 +16196,14 @@
       <c r="J257" s="6"/>
       <c r="K257" s="6"/>
       <c r="L257" s="6" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="M257" s="6"/>
       <c r="N257" s="6"/>
       <c r="O257" s="6"/>
       <c r="P257" s="6"/>
       <c r="Q257" s="6" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="R257" s="6"/>
       <c r="S257" s="6"/>
@@ -23329,7 +23028,7 @@
   <customSheetViews>
     <customSheetView guid="{15DBB831-0923-4F6E-8C15-1BFBA2E113B4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AC10" xr:uid="{B8A6DA5D-9A3D-4F4C-9724-65DC2F2414FE}"/>
+      <autoFilter ref="A1:AC10" xr:uid="{F45FA103-87C5-4B5E-BCA6-D2742476797E}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1616134009"/>
@@ -23338,35 +23037,35 @@
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="C1:AF860">
-    <cfRule type="expression" dxfId="77" priority="22" stopIfTrue="1">
-      <formula>OR(AND(LEFT($C1, 14)="sensor_stream ", LEN($C1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $C1, 15)))), AND(LEFT($C1, 17)="sensor_statistic ", LEN($C1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $C1, 18)))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="23" stopIfTrue="1">
-      <formula>$C1="comments"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="24" stopIfTrue="1">
-      <formula>OR($C1="audio", $C1="video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="25" stopIfTrue="1">
       <formula>$C1="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="26" stopIfTrue="1">
-      <formula>OR($C1="date", $C1="datetime")</formula>
+    <cfRule type="expression" dxfId="76" priority="31" stopIfTrue="1">
+      <formula>OR($C1="audio audit", $C1="text audit", $C1="speed violations count", $C1="speed violations list", $C1="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="30" stopIfTrue="1">
+      <formula>OR($C1="geopoint", $C1="geoshape", $C1="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="29" stopIfTrue="1">
+      <formula>$C1="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="28" stopIfTrue="1">
+      <formula>$C1="note"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="72" priority="27" stopIfTrue="1">
       <formula>OR($C1="calculate", $C1="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="28" stopIfTrue="1">
-      <formula>$C1="note"</formula>
+    <cfRule type="expression" dxfId="71" priority="26" stopIfTrue="1">
+      <formula>OR($C1="date", $C1="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="29" stopIfTrue="1">
-      <formula>$C1="barcode"</formula>
+    <cfRule type="expression" dxfId="70" priority="22" stopIfTrue="1">
+      <formula>OR(AND(LEFT($C1, 14)="sensor_stream ", LEN($C1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $C1, 15)))), AND(LEFT($C1, 17)="sensor_statistic ", LEN($C1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $C1, 18)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="30" stopIfTrue="1">
-      <formula>OR($C1="geopoint", $C1="geoshape", $C1="geotrace")</formula>
+    <cfRule type="expression" dxfId="69" priority="23" stopIfTrue="1">
+      <formula>$C1="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="31" stopIfTrue="1">
-      <formula>OR($C1="audio audit", $C1="text audit", $C1="speed violations count", $C1="speed violations list", $C1="speed violations audit")</formula>
+    <cfRule type="expression" dxfId="68" priority="24" stopIfTrue="1">
+      <formula>OR($C1="audio", $C1="video")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="67" priority="32" stopIfTrue="1">
       <formula>OR($C1="username", $C1="phonenumber", $C1="start", $C1="end", $C1="deviceid", $C1="subscriberid", $C1="simserial", $C1="caseid")</formula>
@@ -23396,65 +23095,59 @@
       <formula>$C1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E10 D1:D860 H1:H860">
+  <conditionalFormatting sqref="D1:D860 E2:E10 H1:H860">
     <cfRule type="expression" dxfId="58" priority="13" stopIfTrue="1">
       <formula>OR(AND(LEFT($C1, 16)="select_multiple ", LEN($C1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $C1, 17)))), AND(LEFT($C1, 11)="select_one ", LEN($C1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $C1, 12)))))</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="57" priority="19" stopIfTrue="1">
+      <formula>OR($C1="date", $C1="datetime")</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E10 D1:D860">
-    <cfRule type="expression" dxfId="57" priority="16" stopIfTrue="1">
+  <conditionalFormatting sqref="D1:D860 E2:E10">
+    <cfRule type="expression" dxfId="56" priority="15" stopIfTrue="1">
+      <formula>$C1="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="16" stopIfTrue="1">
       <formula>$C1="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="17" stopIfTrue="1">
       <formula>OR($C1="geopoint", $C1="geoshape", $C1="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="21" stopIfTrue="1">
       <formula>OR($C1="audio", $C1="video")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E10 D1:D860 H1:H860">
-    <cfRule type="expression" dxfId="54" priority="19" stopIfTrue="1">
-      <formula>OR($C1="date", $C1="datetime")</formula>
+  <conditionalFormatting sqref="D1:D860 H1:H860 E2:E10">
+    <cfRule type="expression" dxfId="52" priority="20" stopIfTrue="1">
+      <formula>$C1="image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E10 D1:D860">
-    <cfRule type="expression" dxfId="53" priority="15" stopIfTrue="1">
-      <formula>$C1="note"</formula>
+  <conditionalFormatting sqref="D1:D860 H1:H860 L1:L860 E2:E10 M243:M247">
+    <cfRule type="expression" dxfId="51" priority="8" stopIfTrue="1">
+      <formula>$C1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D860 H1:H860">
-    <cfRule type="expression" dxfId="52" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="14" stopIfTrue="1">
+      <formula>OR($C1="audio audit", $C1="text audit", $C1="speed violations count", $C1="speed violations list", $C1="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="42" stopIfTrue="1">
       <formula>OR(AND(LEFT($C1, 14)="sensor_stream ", LEN($C1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $C1, 15)))), AND(LEFT($C1, 17)="sensor_statistic ", LEN($C1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $C1, 18)))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D860 L1:L860 E2:E10 M243:M247 R1:R860">
+    <cfRule type="expression" dxfId="48" priority="9" stopIfTrue="1">
+      <formula>$C1="begin repeat"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D1:D860 Q1:Q860">
-    <cfRule type="expression" dxfId="51" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="18" stopIfTrue="1">
       <formula>OR($C1="calculate", $C1="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D860">
-    <cfRule type="expression" dxfId="50" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="41" stopIfTrue="1">
       <formula>$C1="comments"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E10 D1:D860 H1:H860">
-    <cfRule type="expression" dxfId="49" priority="20" stopIfTrue="1">
-      <formula>$C1="image"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D860 H1:H860">
-    <cfRule type="expression" dxfId="48" priority="14" stopIfTrue="1">
-      <formula>OR($C1="audio audit", $C1="text audit", $C1="speed violations count", $C1="speed violations list", $C1="speed violations audit")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E10 M243:M247 D1:D860 H1:H860 L1:L860">
-    <cfRule type="expression" dxfId="47" priority="8" stopIfTrue="1">
-      <formula>$C1="begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E10 M243:M247 D1:D860 L1:L860 R1:R860">
-    <cfRule type="expression" dxfId="46" priority="9" stopIfTrue="1">
-      <formula>$C1="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:F860 H1:H860">
@@ -23481,7 +23174,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23495,22 +23188,22 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -23535,16 +23228,16 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13">
@@ -23573,16 +23266,16 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="B3" s="13">
         <v>0</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -23637,10 +23330,10 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>242</v>
@@ -23707,10 +23400,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13">
@@ -23745,10 +23438,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13">
@@ -23783,10 +23476,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13">
@@ -23821,10 +23514,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13">
@@ -23859,10 +23552,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13">
@@ -23897,10 +23590,10 @@
         <v>111</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13">
@@ -23963,10 +23656,10 @@
         <v>888</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13">
@@ -24029,10 +23722,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -24065,10 +23758,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -24101,10 +23794,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -24137,10 +23830,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -24195,16 +23888,16 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="B21" s="13">
         <v>0</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13">
@@ -24233,16 +23926,16 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="B22" s="13">
         <v>1</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13">
@@ -24271,16 +23964,16 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="B23" s="13">
         <v>2</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13">
@@ -24309,16 +24002,16 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="B24" s="13">
         <v>3</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13">
@@ -24347,16 +24040,16 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="B25" s="13">
         <v>4</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13">
@@ -24385,16 +24078,16 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="B26" s="13">
         <v>5</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13">
@@ -24423,16 +24116,16 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="B27" s="13">
         <v>888</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13">
@@ -24489,16 +24182,16 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="B29" s="13">
         <v>0</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13">
@@ -24527,16 +24220,16 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="B30" s="13">
         <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13">
@@ -24565,16 +24258,16 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="B31" s="13">
         <v>2</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13">
@@ -24603,16 +24296,16 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="B32" s="13">
         <v>3</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13">
@@ -24641,16 +24334,16 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="B33" s="13">
         <v>4</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13">
@@ -24679,16 +24372,16 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="B34" s="13">
         <v>888</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13">
@@ -24779,10 +24472,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -24815,10 +24508,10 @@
         <v>2</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
@@ -24851,10 +24544,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
@@ -24887,10 +24580,10 @@
         <v>4</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -24923,10 +24616,10 @@
         <v>5</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -25009,16 +24702,16 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B44" s="13">
         <v>1</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
@@ -25045,16 +24738,16 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B45" s="13">
         <v>2</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
@@ -25109,16 +24802,16 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="B47" s="13">
         <v>1</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
@@ -25145,16 +24838,16 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="B48" s="13">
         <v>2</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
@@ -25181,16 +24874,16 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="B49" s="13">
         <v>3</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
@@ -25273,7 +24966,7 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>86</v>
@@ -25312,7 +25005,7 @@
         <v>245</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>93</v>
@@ -25345,10 +25038,10 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>99</v>
@@ -25381,10 +25074,10 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>106</v>
@@ -25444,18 +25137,10 @@
       <c r="Z56" s="8"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="B57" s="13">
-        <v>1</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>729</v>
-      </c>
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
       <c r="G57" s="8"/>
@@ -25480,18 +25165,10 @@
       <c r="Z57" s="8"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="B58" s="13">
-        <v>2</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>730</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>731</v>
-      </c>
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" s="8"/>
@@ -25544,18 +25221,10 @@
       <c r="Z59" s="8"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>732</v>
-      </c>
-      <c r="B60" s="13">
-        <v>1</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>734</v>
-      </c>
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
       <c r="G60" s="8"/>
@@ -25580,18 +25249,10 @@
       <c r="Z60" s="8"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>732</v>
-      </c>
-      <c r="B61" s="13">
-        <v>2</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>736</v>
-      </c>
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
       <c r="G61" s="8"/>
@@ -25644,18 +25305,10 @@
       <c r="Z62" s="8"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
-        <v>737</v>
-      </c>
-      <c r="B63" s="13">
-        <v>1</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>738</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>739</v>
-      </c>
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
       <c r="G63" s="8"/>
@@ -25680,18 +25333,10 @@
       <c r="Z63" s="8"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
-        <v>737</v>
-      </c>
-      <c r="B64" s="13">
-        <v>2</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>740</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>741</v>
-      </c>
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
       <c r="G64" s="8"/>
@@ -25772,18 +25417,10 @@
       <c r="Z66" s="8"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="B67" s="13">
-        <v>1</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>742</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>743</v>
-      </c>
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
       <c r="G67" s="8"/>
@@ -25808,18 +25445,10 @@
       <c r="Z67" s="8"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="B68" s="13">
-        <v>2</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>744</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>745</v>
-      </c>
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
       <c r="G68" s="8"/>
@@ -25844,18 +25473,10 @@
       <c r="Z68" s="8"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="B69" s="13">
-        <v>3</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>746</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>747</v>
-      </c>
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
       <c r="G69" s="8"/>
@@ -25880,18 +25501,10 @@
       <c r="Z69" s="8"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="B70" s="13">
-        <v>4</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>748</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>749</v>
-      </c>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
       <c r="G70" s="8"/>
@@ -25916,18 +25529,10 @@
       <c r="Z70" s="8"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="B71" s="13">
-        <v>5</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>750</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>751</v>
-      </c>
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
       <c r="G71" s="8"/>
@@ -25952,18 +25557,10 @@
       <c r="Z71" s="8"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="B72" s="13">
-        <v>6</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>752</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>753</v>
-      </c>
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
       <c r="G72" s="8"/>
@@ -25988,18 +25585,10 @@
       <c r="Z72" s="8"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="B73" s="13">
-        <v>7</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>754</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>755</v>
-      </c>
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
       <c r="G73" s="8"/>
@@ -26024,18 +25613,10 @@
       <c r="Z73" s="8"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="B74" s="13">
-        <v>0</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>756</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>757</v>
-      </c>
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
       <c r="G74" s="8"/>
@@ -26088,18 +25669,10 @@
       <c r="Z75" s="8"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B76" s="13">
-        <v>1</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>758</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>759</v>
-      </c>
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
       <c r="G76" s="8"/>
@@ -26124,18 +25697,10 @@
       <c r="Z76" s="8"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B77" s="13">
-        <v>2</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>760</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>761</v>
-      </c>
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
       <c r="G77" s="8"/>
@@ -26160,18 +25725,10 @@
       <c r="Z77" s="8"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B78" s="13">
-        <v>3</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>762</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>763</v>
-      </c>
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
       <c r="G78" s="8"/>
@@ -26196,18 +25753,10 @@
       <c r="Z78" s="8"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B79" s="13">
-        <v>4</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>764</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>765</v>
-      </c>
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
       <c r="G79" s="8"/>
@@ -26232,18 +25781,10 @@
       <c r="Z79" s="8"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B80" s="13">
-        <v>5</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>766</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>767</v>
-      </c>
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
       <c r="G80" s="8"/>
@@ -26268,18 +25809,10 @@
       <c r="Z80" s="8"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B81" s="13">
-        <v>6</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>768</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>769</v>
-      </c>
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
       <c r="G81" s="8"/>
@@ -26304,18 +25837,10 @@
       <c r="Z81" s="8"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B82" s="13">
-        <v>7</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>770</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>771</v>
-      </c>
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
       <c r="G82" s="8"/>
@@ -26340,18 +25865,10 @@
       <c r="Z82" s="8"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B83" s="13">
-        <v>8</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>772</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>773</v>
-      </c>
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
       <c r="G83" s="8"/>
@@ -26376,18 +25893,10 @@
       <c r="Z83" s="8"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B84" s="13">
-        <v>9</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>774</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>775</v>
-      </c>
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
       <c r="G84" s="8"/>
@@ -26412,18 +25921,10 @@
       <c r="Z84" s="8"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B85" s="13">
-        <v>10</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>776</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>777</v>
-      </c>
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
       <c r="G85" s="8"/>
@@ -26448,18 +25949,10 @@
       <c r="Z85" s="8"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B86" s="13">
-        <v>11</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>778</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>779</v>
-      </c>
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
       <c r="G86" s="8"/>
@@ -26484,18 +25977,10 @@
       <c r="Z86" s="8"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B87" s="13">
-        <v>12</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>780</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>781</v>
-      </c>
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
       <c r="G87" s="8"/>
@@ -26604,18 +26089,10 @@
       <c r="Z90" s="8"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="B91" s="13">
-        <v>1</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>782</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>783</v>
-      </c>
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
       <c r="G91" s="8"/>
@@ -26640,18 +26117,10 @@
       <c r="Z91" s="8"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="B92" s="13">
-        <v>2</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>784</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>785</v>
-      </c>
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
       <c r="G92" s="8"/>
@@ -26676,18 +26145,10 @@
       <c r="Z92" s="8"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="B93" s="13">
-        <v>3</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>699</v>
-      </c>
-      <c r="D93" s="13" t="s">
-        <v>707</v>
-      </c>
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
       <c r="G93" s="8"/>
@@ -26740,18 +26201,10 @@
       <c r="Z94" s="8"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
-        <v>786</v>
-      </c>
-      <c r="B95" s="13">
-        <v>1</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>787</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>788</v>
-      </c>
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
       <c r="G95" s="8"/>
@@ -26776,18 +26229,10 @@
       <c r="Z95" s="8"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
-        <v>786</v>
-      </c>
-      <c r="B96" s="13">
-        <v>2</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>789</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>790</v>
-      </c>
+      <c r="A96" s="13"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
       <c r="G96" s="8"/>
@@ -26812,18 +26257,10 @@
       <c r="Z96" s="8"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
-        <v>786</v>
-      </c>
-      <c r="B97" s="13">
-        <v>3</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>791</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>792</v>
-      </c>
+      <c r="A97" s="13"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
       <c r="G97" s="8"/>
@@ -26848,18 +26285,10 @@
       <c r="Z97" s="8"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="13" t="s">
-        <v>786</v>
-      </c>
-      <c r="B98" s="13">
-        <v>4</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>793</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>794</v>
-      </c>
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
       <c r="G98" s="8"/>
@@ -26884,18 +26313,10 @@
       <c r="Z98" s="8"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="13" t="s">
-        <v>786</v>
-      </c>
-      <c r="B99" s="13">
-        <v>5</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>795</v>
-      </c>
-      <c r="D99" s="13" t="s">
-        <v>796</v>
-      </c>
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
       <c r="G99" s="8"/>
@@ -26948,18 +26369,10 @@
       <c r="Z100" s="8"/>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
-        <v>797</v>
-      </c>
-      <c r="B101" s="13">
-        <v>1</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="D101" s="13" t="s">
-        <v>798</v>
-      </c>
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
       <c r="G101" s="8"/>
@@ -26984,18 +26397,10 @@
       <c r="Z101" s="8"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="13" t="s">
-        <v>797</v>
-      </c>
-      <c r="B102" s="13">
-        <v>2</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>799</v>
-      </c>
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
       <c r="G102" s="8"/>
@@ -27020,18 +26425,10 @@
       <c r="Z102" s="8"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="13" t="s">
-        <v>797</v>
-      </c>
-      <c r="B103" s="13">
-        <v>3</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>800</v>
-      </c>
+      <c r="A103" s="13"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
       <c r="G103" s="8"/>
@@ -27056,18 +26453,10 @@
       <c r="Z103" s="8"/>
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="13" t="s">
-        <v>797</v>
-      </c>
-      <c r="B104" s="13">
-        <v>4</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>801</v>
-      </c>
+      <c r="A104" s="13"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
       <c r="G104" s="8"/>
@@ -27120,22 +26509,12 @@
       <c r="Z105" s="8"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="B106" s="13">
-        <v>1</v>
-      </c>
-      <c r="C106" s="13">
-        <v>120</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>802</v>
-      </c>
+      <c r="A106" s="13"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
       <c r="E106" s="13"/>
-      <c r="F106" s="13">
-        <v>1</v>
-      </c>
+      <c r="F106" s="13"/>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
@@ -27158,22 +26537,12 @@
       <c r="Z106" s="8"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="B107" s="13">
-        <v>2</v>
-      </c>
-      <c r="C107" s="13">
-        <v>110</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>803</v>
-      </c>
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
       <c r="E107" s="13"/>
-      <c r="F107" s="13">
-        <v>1</v>
-      </c>
+      <c r="F107" s="13"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
@@ -27196,22 +26565,12 @@
       <c r="Z107" s="8"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="B108" s="13">
-        <v>3</v>
-      </c>
-      <c r="C108" s="13">
-        <v>100</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>804</v>
-      </c>
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
       <c r="E108" s="13"/>
-      <c r="F108" s="13">
-        <v>1</v>
-      </c>
+      <c r="F108" s="13"/>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
@@ -27234,22 +26593,12 @@
       <c r="Z108" s="8"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="B109" s="13">
-        <v>4</v>
-      </c>
-      <c r="C109" s="13">
-        <v>90</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>805</v>
-      </c>
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
       <c r="E109" s="13"/>
-      <c r="F109" s="13">
-        <v>1</v>
-      </c>
+      <c r="F109" s="13"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
@@ -27272,22 +26621,12 @@
       <c r="Z109" s="8"/>
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="B110" s="13">
-        <v>5</v>
-      </c>
-      <c r="C110" s="13">
-        <v>90</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>805</v>
-      </c>
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
       <c r="E110" s="13"/>
-      <c r="F110" s="13">
-        <v>2</v>
-      </c>
+      <c r="F110" s="13"/>
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
@@ -27310,22 +26649,12 @@
       <c r="Z110" s="8"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="B111" s="13">
-        <v>6</v>
-      </c>
-      <c r="C111" s="13">
-        <v>80</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>806</v>
-      </c>
+      <c r="A111" s="13"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
       <c r="E111" s="13"/>
-      <c r="F111" s="13">
-        <v>2</v>
-      </c>
+      <c r="F111" s="13"/>
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
       <c r="I111" s="8"/>
@@ -27348,22 +26677,12 @@
       <c r="Z111" s="8"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="B112" s="13">
-        <v>7</v>
-      </c>
-      <c r="C112" s="13">
-        <v>70</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>807</v>
-      </c>
+      <c r="A112" s="13"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
       <c r="E112" s="13"/>
-      <c r="F112" s="13">
-        <v>2</v>
-      </c>
+      <c r="F112" s="13"/>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
@@ -27386,22 +26705,12 @@
       <c r="Z112" s="8"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="B113" s="13">
-        <v>8</v>
-      </c>
-      <c r="C113" s="13">
-        <v>60</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>808</v>
-      </c>
+      <c r="A113" s="13"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
       <c r="E113" s="13"/>
-      <c r="F113" s="13">
-        <v>2</v>
-      </c>
+      <c r="F113" s="13"/>
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
       <c r="I113" s="8"/>
@@ -27424,22 +26733,12 @@
       <c r="Z113" s="8"/>
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="B114" s="13">
-        <v>9</v>
-      </c>
-      <c r="C114" s="13">
-        <v>60</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>808</v>
-      </c>
+      <c r="A114" s="13"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
       <c r="E114" s="13"/>
-      <c r="F114" s="13">
-        <v>3</v>
-      </c>
+      <c r="F114" s="13"/>
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
       <c r="I114" s="8"/>
@@ -27462,22 +26761,12 @@
       <c r="Z114" s="8"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="B115" s="13">
-        <v>10</v>
-      </c>
-      <c r="C115" s="13">
-        <v>50</v>
-      </c>
-      <c r="D115" s="13" t="s">
-        <v>809</v>
-      </c>
+      <c r="A115" s="13"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
       <c r="E115" s="13"/>
-      <c r="F115" s="13">
-        <v>3</v>
-      </c>
+      <c r="F115" s="13"/>
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
@@ -27500,22 +26789,12 @@
       <c r="Z115" s="8"/>
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="B116" s="13">
-        <v>11</v>
-      </c>
-      <c r="C116" s="13">
-        <v>40</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>810</v>
-      </c>
+      <c r="A116" s="13"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
       <c r="E116" s="13"/>
-      <c r="F116" s="13">
-        <v>3</v>
-      </c>
+      <c r="F116" s="13"/>
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
       <c r="I116" s="8"/>
@@ -27538,22 +26817,12 @@
       <c r="Z116" s="8"/>
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="B117" s="13">
-        <v>12</v>
-      </c>
-      <c r="C117" s="13">
-        <v>30</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>811</v>
-      </c>
+      <c r="A117" s="13"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
       <c r="E117" s="13"/>
-      <c r="F117" s="13">
-        <v>3</v>
-      </c>
+      <c r="F117" s="13"/>
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
       <c r="I117" s="8"/>
@@ -27576,22 +26845,12 @@
       <c r="Z117" s="8"/>
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="B118" s="13">
-        <v>13</v>
-      </c>
-      <c r="C118" s="13">
-        <v>30</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>811</v>
-      </c>
+      <c r="A118" s="13"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
       <c r="E118" s="13"/>
-      <c r="F118" s="13">
-        <v>4</v>
-      </c>
+      <c r="F118" s="13"/>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
@@ -27614,22 +26873,12 @@
       <c r="Z118" s="8"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="B119" s="13">
-        <v>14</v>
-      </c>
-      <c r="C119" s="13">
-        <v>20</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>812</v>
-      </c>
+      <c r="A119" s="13"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
       <c r="E119" s="13"/>
-      <c r="F119" s="13">
-        <v>4</v>
-      </c>
+      <c r="F119" s="13"/>
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
       <c r="I119" s="8"/>
@@ -27652,22 +26901,12 @@
       <c r="Z119" s="8"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="B120" s="13">
-        <v>15</v>
-      </c>
-      <c r="C120" s="13">
-        <v>10</v>
-      </c>
-      <c r="D120" s="13" t="s">
-        <v>813</v>
-      </c>
+      <c r="A120" s="13"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
       <c r="E120" s="13"/>
-      <c r="F120" s="13">
-        <v>4</v>
-      </c>
+      <c r="F120" s="13"/>
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
@@ -27718,18 +26957,10 @@
       <c r="Z121" s="8"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="13" t="s">
-        <v>814</v>
-      </c>
-      <c r="B122" s="13">
-        <v>1</v>
-      </c>
-      <c r="C122" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>815</v>
-      </c>
+      <c r="A122" s="13"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
       <c r="G122" s="8"/>
@@ -27754,18 +26985,10 @@
       <c r="Z122" s="8"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="13" t="s">
-        <v>814</v>
-      </c>
-      <c r="B123" s="13">
-        <v>0</v>
-      </c>
-      <c r="C123" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>816</v>
-      </c>
+      <c r="A123" s="13"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
       <c r="E123" s="13"/>
       <c r="F123" s="13"/>
       <c r="G123" s="8"/>
@@ -27818,18 +27041,10 @@
       <c r="Z124" s="8"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="B125" s="13">
-        <v>1</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>658</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>659</v>
-      </c>
+      <c r="A125" s="13"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="10"/>
       <c r="E125" s="13"/>
       <c r="F125" s="13"/>
       <c r="G125" s="8"/>
@@ -27854,18 +27069,10 @@
       <c r="Z125" s="8"/>
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="B126" s="13">
-        <v>2</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>817</v>
-      </c>
-      <c r="D126" s="13" t="s">
-        <v>818</v>
-      </c>
+      <c r="A126" s="13"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
       <c r="E126" s="13"/>
       <c r="F126" s="13"/>
       <c r="G126" s="8"/>
@@ -32117,25 +31324,25 @@
   <sheetData>
     <row r="1" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>819</v>
+        <v>719</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>820</v>
+        <v>720</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>821</v>
+        <v>721</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>822</v>
+        <v>722</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>823</v>
+        <v>723</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>824</v>
+        <v>724</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -32158,33 +31365,33 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>826</v>
+        <v>726</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>827</v>
+        <v>727</v>
       </c>
       <c r="C2" s="13" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2304191342</v>
+        <v>2304191344</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>828</v>
+        <v>728</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>828</v>
+        <v>728</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>829</v>
+        <v>729</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>830</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>831</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33201,7 +32408,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
-        <v>832</v>
+        <v>732</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="19"/>
@@ -33267,7 +32474,7 @@
     </row>
     <row r="3" spans="1:30" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>833</v>
+        <v>733</v>
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="19"/>
@@ -33339,16 +32546,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>834</v>
+        <v>734</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>835</v>
+        <v>735</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>836</v>
+        <v>736</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>837</v>
+        <v>737</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -33360,10 +32567,10 @@
         <v>8</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>838</v>
+        <v>738</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>839</v>
+        <v>739</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>11</v>
@@ -33378,7 +32585,7 @@
         <v>14</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>840</v>
+        <v>740</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>15</v>
@@ -33399,13 +32606,13 @@
         <v>20</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>841</v>
+        <v>741</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>842</v>
+        <v>742</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>843</v>
+        <v>743</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>21</v>
@@ -33425,94 +32632,94 @@
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>844</v>
+        <v>744</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>845</v>
+        <v>745</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>846</v>
+        <v>746</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>847</v>
+        <v>747</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>848</v>
+        <v>748</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>849</v>
+        <v>749</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>851</v>
+        <v>751</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>852</v>
+        <v>752</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>853</v>
+        <v>753</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>854</v>
+        <v>754</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>855</v>
+        <v>755</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>856</v>
+        <v>756</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>857</v>
+        <v>757</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>858</v>
+        <v>758</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>859</v>
+        <v>759</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>860</v>
+        <v>760</v>
       </c>
       <c r="R6" s="22" t="s">
-        <v>861</v>
+        <v>761</v>
       </c>
       <c r="S6" s="22" t="s">
-        <v>862</v>
+        <v>762</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>863</v>
+        <v>763</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>864</v>
+        <v>764</v>
       </c>
       <c r="V6" s="22" t="s">
-        <v>865</v>
+        <v>765</v>
       </c>
       <c r="W6" s="22" t="s">
-        <v>866</v>
+        <v>766</v>
       </c>
       <c r="X6" s="22" t="s">
-        <v>867</v>
+        <v>767</v>
       </c>
       <c r="Y6" s="22" t="s">
-        <v>868</v>
+        <v>768</v>
       </c>
       <c r="Z6" s="22" t="s">
-        <v>869</v>
+        <v>769</v>
       </c>
       <c r="AA6" s="22" t="s">
-        <v>870</v>
+        <v>770</v>
       </c>
       <c r="AB6" s="22" t="s">
-        <v>871</v>
+        <v>771</v>
       </c>
       <c r="AC6" s="22" t="s">
-        <v>872</v>
+        <v>772</v>
       </c>
       <c r="AD6" s="22" t="s">
-        <v>873</v>
+        <v>773</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33549,7 +32756,7 @@
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
-        <v>874</v>
+        <v>774</v>
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="23"/>
@@ -33618,10 +32825,10 @@
         <v>279</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>876</v>
+        <v>776</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -33656,17 +32863,17 @@
         <v>279</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>877</v>
+        <v>777</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
@@ -33693,13 +32900,13 @@
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>878</v>
+        <v>778</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -33731,13 +32938,13 @@
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>879</v>
+        <v>779</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>880</v>
+        <v>780</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -33769,13 +32976,13 @@
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>881</v>
+        <v>781</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>882</v>
+        <v>782</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -33807,20 +33014,20 @@
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>881</v>
+        <v>781</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>883</v>
+        <v>783</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
@@ -33847,20 +33054,20 @@
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>881</v>
+        <v>781</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>884</v>
+        <v>784</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25" t="s">
-        <v>885</v>
+        <v>785</v>
       </c>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
@@ -33887,20 +33094,20 @@
     </row>
     <row r="17" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>881</v>
+        <v>781</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>886</v>
+        <v>786</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25" t="s">
-        <v>887</v>
+        <v>787</v>
       </c>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
@@ -33927,20 +33134,20 @@
     </row>
     <row r="18" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>881</v>
+        <v>781</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>888</v>
+        <v>788</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25" t="s">
-        <v>889</v>
+        <v>789</v>
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
@@ -33967,20 +33174,20 @@
     </row>
     <row r="19" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>881</v>
+        <v>781</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>890</v>
+        <v>790</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25" t="s">
-        <v>891</v>
+        <v>791</v>
       </c>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
@@ -34007,20 +33214,20 @@
     </row>
     <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>881</v>
+        <v>781</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>892</v>
+        <v>792</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25" t="s">
-        <v>893</v>
+        <v>793</v>
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
@@ -34047,20 +33254,20 @@
     </row>
     <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>881</v>
+        <v>781</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>894</v>
+        <v>794</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25" t="s">
-        <v>895</v>
+        <v>795</v>
       </c>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
@@ -34087,20 +33294,20 @@
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>881</v>
+        <v>781</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>896</v>
+        <v>796</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25" t="s">
-        <v>897</v>
+        <v>797</v>
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
@@ -34127,20 +33334,20 @@
     </row>
     <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>881</v>
+        <v>781</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>898</v>
+        <v>798</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25" t="s">
-        <v>899</v>
+        <v>799</v>
       </c>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
@@ -34167,20 +33374,20 @@
     </row>
     <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>881</v>
+        <v>781</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25" t="s">
-        <v>901</v>
+        <v>801</v>
       </c>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
@@ -34207,20 +33414,20 @@
     </row>
     <row r="25" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>881</v>
+        <v>781</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>902</v>
+        <v>802</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25" t="s">
-        <v>903</v>
+        <v>803</v>
       </c>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
@@ -34247,20 +33454,20 @@
     </row>
     <row r="26" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>881</v>
+        <v>781</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>904</v>
+        <v>804</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25" t="s">
-        <v>905</v>
+        <v>805</v>
       </c>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
@@ -34287,20 +33494,20 @@
     </row>
     <row r="27" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>881</v>
+        <v>781</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>906</v>
+        <v>806</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25" t="s">
-        <v>907</v>
+        <v>807</v>
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
@@ -34327,20 +33534,20 @@
     </row>
     <row r="28" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>881</v>
+        <v>781</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>908</v>
+        <v>808</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
       <c r="H28" s="25" t="s">
-        <v>909</v>
+        <v>809</v>
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
@@ -34367,13 +33574,13 @@
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>910</v>
+        <v>810</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>911</v>
+        <v>811</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -34405,20 +33612,20 @@
     </row>
     <row r="30" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>910</v>
+        <v>810</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>912</v>
+        <v>812</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
       <c r="H30" s="25" t="s">
-        <v>891</v>
+        <v>791</v>
       </c>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
@@ -34445,20 +33652,20 @@
     </row>
     <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>910</v>
+        <v>810</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>913</v>
+        <v>813</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25" t="s">
-        <v>893</v>
+        <v>793</v>
       </c>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
@@ -34485,20 +33692,20 @@
     </row>
     <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>910</v>
+        <v>810</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>914</v>
+        <v>814</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
       <c r="H32" s="25" t="s">
-        <v>895</v>
+        <v>795</v>
       </c>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
@@ -34525,20 +33732,20 @@
     </row>
     <row r="33" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>910</v>
+        <v>810</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>915</v>
+        <v>815</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25" t="s">
-        <v>901</v>
+        <v>801</v>
       </c>
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
@@ -34565,20 +33772,20 @@
     </row>
     <row r="34" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>910</v>
+        <v>810</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>916</v>
+        <v>816</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
       <c r="H34" s="25" t="s">
-        <v>903</v>
+        <v>803</v>
       </c>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
@@ -34605,20 +33812,20 @@
     </row>
     <row r="35" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>910</v>
+        <v>810</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>917</v>
+        <v>817</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
       <c r="H35" s="25" t="s">
-        <v>905</v>
+        <v>805</v>
       </c>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
@@ -34645,20 +33852,20 @@
     </row>
     <row r="36" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>910</v>
+        <v>810</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>918</v>
+        <v>818</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
       <c r="H36" s="25" t="s">
-        <v>907</v>
+        <v>807</v>
       </c>
       <c r="I36" s="25"/>
       <c r="J36" s="25"/>
@@ -34685,20 +33892,20 @@
     </row>
     <row r="37" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>910</v>
+        <v>810</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>919</v>
+        <v>819</v>
       </c>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
       <c r="H37" s="25" t="s">
-        <v>909</v>
+        <v>809</v>
       </c>
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
@@ -34725,13 +33932,13 @@
     </row>
     <row r="38" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>920</v>
+        <v>820</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>921</v>
+        <v>821</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -34763,13 +33970,13 @@
     </row>
     <row r="39" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>922</v>
+        <v>822</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>923</v>
+        <v>823</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
@@ -34801,13 +34008,13 @@
     </row>
     <row r="40" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>924</v>
+        <v>824</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
@@ -34839,13 +34046,13 @@
     </row>
     <row r="41" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>926</v>
+        <v>826</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>927</v>
+        <v>827</v>
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
@@ -34877,13 +34084,13 @@
     </row>
     <row r="42" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>928</v>
+        <v>828</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>929</v>
+        <v>829</v>
       </c>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
@@ -34915,20 +34122,20 @@
     </row>
     <row r="43" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>928</v>
+        <v>828</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>930</v>
+        <v>830</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
       <c r="H43" s="25" t="s">
-        <v>931</v>
+        <v>831</v>
       </c>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
@@ -34955,13 +34162,13 @@
     </row>
     <row r="44" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>932</v>
+        <v>832</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
@@ -34993,20 +34200,20 @@
     </row>
     <row r="45" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>933</v>
+        <v>833</v>
       </c>
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
       <c r="H45" s="25" t="s">
-        <v>931</v>
+        <v>831</v>
       </c>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
@@ -35033,13 +34240,13 @@
     </row>
     <row r="46" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>934</v>
+        <v>834</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
@@ -35071,20 +34278,20 @@
     </row>
     <row r="47" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>935</v>
+        <v>835</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
       <c r="H47" s="25" t="s">
-        <v>936</v>
+        <v>836</v>
       </c>
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
@@ -35111,20 +34318,20 @@
     </row>
     <row r="48" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>937</v>
+        <v>837</v>
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25" t="s">
-        <v>938</v>
+        <v>838</v>
       </c>
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
@@ -35151,20 +34358,20 @@
     </row>
     <row r="49" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>939</v>
+        <v>839</v>
       </c>
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
       <c r="H49" s="25" t="s">
-        <v>940</v>
+        <v>840</v>
       </c>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
@@ -35191,13 +34398,13 @@
     </row>
     <row r="50" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>941</v>
+        <v>841</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>942</v>
+        <v>842</v>
       </c>
       <c r="D50" s="25"/>
       <c r="E50" s="25"/>
@@ -35229,13 +34436,13 @@
     </row>
     <row r="51" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>943</v>
+        <v>843</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>944</v>
+        <v>844</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
@@ -35267,13 +34474,13 @@
     </row>
     <row r="52" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>945</v>
+        <v>845</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>946</v>
+        <v>846</v>
       </c>
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
@@ -35308,10 +34515,10 @@
         <v>22</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>947</v>
+        <v>847</v>
       </c>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
@@ -35346,7 +34553,7 @@
         <v>26</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C54" s="26"/>
       <c r="D54" s="25"/>
@@ -35382,7 +34589,7 @@
         <v>29</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C55" s="26"/>
       <c r="D55" s="25"/>
@@ -35418,7 +34625,7 @@
         <v>32</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C56" s="26"/>
       <c r="D56" s="25"/>
@@ -35454,7 +34661,7 @@
         <v>34</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="25"/>
@@ -35490,7 +34697,7 @@
         <v>36</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C58" s="26"/>
       <c r="D58" s="25"/>
@@ -35523,10 +34730,10 @@
     </row>
     <row r="59" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>948</v>
+        <v>848</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C59" s="26"/>
       <c r="D59" s="25"/>
@@ -35562,7 +34769,7 @@
         <v>39</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C60" s="26"/>
       <c r="D60" s="25"/>
@@ -35598,7 +34805,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C61" s="26"/>
       <c r="D61" s="25"/>
@@ -35634,7 +34841,7 @@
         <v>44</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C62" s="26"/>
       <c r="D62" s="25"/>
@@ -35652,7 +34859,7 @@
       <c r="P62" s="25"/>
       <c r="Q62" s="25"/>
       <c r="R62" s="25" t="s">
-        <v>949</v>
+        <v>849</v>
       </c>
       <c r="S62" s="25"/>
       <c r="T62" s="25"/>
@@ -35672,7 +34879,7 @@
         <v>209</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C63" s="26"/>
       <c r="D63" s="25"/>
@@ -35710,7 +34917,7 @@
         <v>59</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C64" s="26"/>
       <c r="D64" s="25"/>
@@ -35718,7 +34925,7 @@
       <c r="F64" s="25"/>
       <c r="G64" s="25"/>
       <c r="H64" s="25" t="s">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
@@ -35748,7 +34955,7 @@
         <v>55</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C65" s="26"/>
       <c r="D65" s="25"/>
@@ -35756,7 +34963,7 @@
       <c r="F65" s="25"/>
       <c r="G65" s="25"/>
       <c r="H65" s="25" t="s">
-        <v>951</v>
+        <v>851</v>
       </c>
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
@@ -35786,7 +34993,7 @@
         <v>55</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C66" s="26"/>
       <c r="D66" s="25"/>
@@ -35794,7 +35001,7 @@
       <c r="F66" s="25"/>
       <c r="G66" s="25"/>
       <c r="H66" s="25" t="s">
-        <v>952</v>
+        <v>852</v>
       </c>
       <c r="I66" s="25"/>
       <c r="J66" s="25"/>
@@ -35824,7 +35031,7 @@
         <v>55</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C67" s="26"/>
       <c r="D67" s="25"/>
@@ -35832,7 +35039,7 @@
       <c r="F67" s="25"/>
       <c r="G67" s="25"/>
       <c r="H67" s="25" t="s">
-        <v>953</v>
+        <v>853</v>
       </c>
       <c r="I67" s="25"/>
       <c r="J67" s="25"/>
@@ -35862,10 +35069,10 @@
         <v>296</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>954</v>
+        <v>854</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>955</v>
+        <v>855</v>
       </c>
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
@@ -35897,7 +35104,7 @@
     </row>
     <row r="69" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
-        <v>956</v>
+        <v>856</v>
       </c>
       <c r="B69" s="25"/>
       <c r="C69" s="26"/>
@@ -35934,7 +35141,7 @@
         <v>325</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>954</v>
+        <v>854</v>
       </c>
       <c r="C70" s="26"/>
       <c r="D70" s="25"/>
@@ -35970,10 +35177,10 @@
         <v>251</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>957</v>
+        <v>857</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>958</v>
+        <v>858</v>
       </c>
       <c r="D71" s="25"/>
       <c r="E71" s="25"/>
@@ -36005,7 +35212,7 @@
     </row>
     <row r="72" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>956</v>
+        <v>856</v>
       </c>
       <c r="B72" s="25"/>
       <c r="C72" s="26"/>
@@ -36042,7 +35249,7 @@
         <v>335</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>957</v>
+        <v>857</v>
       </c>
       <c r="C73" s="26"/>
       <c r="D73" s="25"/>
@@ -36078,10 +35285,10 @@
         <v>251</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>957</v>
+        <v>857</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>959</v>
+        <v>859</v>
       </c>
       <c r="D74" s="25"/>
       <c r="E74" s="25"/>
@@ -36115,7 +35322,7 @@
     </row>
     <row r="75" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
-        <v>956</v>
+        <v>856</v>
       </c>
       <c r="B75" s="25"/>
       <c r="C75" s="26"/>
@@ -36152,7 +35359,7 @@
         <v>335</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>957</v>
+        <v>857</v>
       </c>
       <c r="C76" s="26"/>
       <c r="D76" s="25"/>
@@ -36185,10 +35392,10 @@
     </row>
     <row r="77" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>960</v>
+        <v>860</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C77" s="26"/>
       <c r="D77" s="25"/>
@@ -36221,10 +35428,10 @@
     </row>
     <row r="78" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>961</v>
+        <v>861</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C78" s="26"/>
       <c r="D78" s="25"/>
@@ -36257,10 +35464,10 @@
     </row>
     <row r="79" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>962</v>
+        <v>862</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C79" s="26"/>
       <c r="D79" s="25"/>
@@ -36268,7 +35475,7 @@
       <c r="F79" s="25"/>
       <c r="G79" s="25"/>
       <c r="H79" s="25" t="s">
-        <v>963</v>
+        <v>863</v>
       </c>
       <c r="I79" s="25"/>
       <c r="J79" s="25"/>
@@ -36295,10 +35502,10 @@
     </row>
     <row r="80" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
-        <v>964</v>
+        <v>864</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C80" s="26"/>
       <c r="D80" s="25"/>
@@ -36306,7 +35513,7 @@
       <c r="F80" s="25"/>
       <c r="G80" s="25"/>
       <c r="H80" s="25" t="s">
-        <v>965</v>
+        <v>865</v>
       </c>
       <c r="I80" s="25"/>
       <c r="J80" s="25"/>
@@ -36333,10 +35540,10 @@
     </row>
     <row r="81" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
-        <v>966</v>
+        <v>866</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="C81" s="26"/>
       <c r="D81" s="25"/>
@@ -36344,7 +35551,7 @@
       <c r="F81" s="25"/>
       <c r="G81" s="25"/>
       <c r="H81" s="25" t="s">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="I81" s="25"/>
       <c r="J81" s="25"/>
@@ -36374,7 +35581,7 @@
     </row>
     <row r="83" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="51" t="s">
-        <v>968</v>
+        <v>868</v>
       </c>
       <c r="B83" s="50"/>
       <c r="C83" s="29"/>
@@ -36411,27 +35618,27 @@
     </row>
     <row r="85" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="31" t="s">
-        <v>969</v>
+        <v>869</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>970</v>
+        <v>870</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>971</v>
+        <v>871</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>972</v>
+        <v>872</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="32" t="s">
-        <v>973</v>
+        <v>873</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>974</v>
+        <v>874</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>975</v>
+        <v>875</v>
       </c>
       <c r="D86" s="32">
         <v>2</v>
@@ -36439,10 +35646,10 @@
     </row>
     <row r="87" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="32" t="s">
-        <v>976</v>
+        <v>876</v>
       </c>
       <c r="B87" s="32" t="s">
-        <v>977</v>
+        <v>877</v>
       </c>
       <c r="C87" s="33" t="str">
         <f>"3 - 2"</f>
@@ -36454,13 +35661,13 @@
     </row>
     <row r="88" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="32" t="s">
-        <v>978</v>
+        <v>878</v>
       </c>
       <c r="B88" s="32" t="s">
-        <v>979</v>
+        <v>879</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="D88" s="32">
         <v>6</v>
@@ -36468,13 +35675,13 @@
     </row>
     <row r="89" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="32" t="s">
-        <v>981</v>
+        <v>881</v>
       </c>
       <c r="B89" s="32" t="s">
-        <v>982</v>
+        <v>882</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>983</v>
+        <v>883</v>
       </c>
       <c r="D89" s="32">
         <v>5</v>
@@ -36482,13 +35689,13 @@
     </row>
     <row r="90" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="32" t="s">
-        <v>984</v>
+        <v>884</v>
       </c>
       <c r="B90" s="32" t="s">
-        <v>985</v>
+        <v>885</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>986</v>
+        <v>886</v>
       </c>
       <c r="D90" s="32">
         <v>1</v>
@@ -36496,128 +35703,128 @@
     </row>
     <row r="91" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
-        <v>987</v>
+        <v>887</v>
       </c>
       <c r="B91" s="32" t="s">
-        <v>988</v>
+        <v>888</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>989</v>
+        <v>889</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>990</v>
+        <v>890</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="32" t="s">
-        <v>991</v>
+        <v>891</v>
       </c>
       <c r="B92" s="32" t="s">
-        <v>992</v>
+        <v>892</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>993</v>
+        <v>893</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>990</v>
+        <v>890</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="32" t="s">
-        <v>994</v>
+        <v>894</v>
       </c>
       <c r="B93" s="32" t="s">
-        <v>995</v>
+        <v>895</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>996</v>
+        <v>896</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>990</v>
+        <v>890</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
-        <v>997</v>
+        <v>897</v>
       </c>
       <c r="B94" s="32" t="s">
-        <v>998</v>
+        <v>898</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>999</v>
+        <v>899</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>990</v>
+        <v>890</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="32" t="s">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="B95" s="32" t="s">
-        <v>1001</v>
+        <v>901</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>1002</v>
+        <v>902</v>
       </c>
       <c r="D95" s="32" t="s">
-        <v>990</v>
+        <v>890</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
-        <v>1003</v>
+        <v>903</v>
       </c>
       <c r="B96" s="32" t="s">
-        <v>1004</v>
+        <v>904</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>1005</v>
+        <v>905</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>990</v>
+        <v>890</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="32" t="s">
-        <v>1006</v>
+        <v>906</v>
       </c>
       <c r="B97" s="32" t="s">
-        <v>1007</v>
+        <v>907</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>1008</v>
+        <v>908</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>990</v>
+        <v>890</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="32" t="s">
-        <v>1009</v>
+        <v>909</v>
       </c>
       <c r="B98" s="32" t="s">
-        <v>1010</v>
+        <v>910</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>1011</v>
+        <v>911</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>990</v>
+        <v>890</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="32" t="s">
-        <v>1012</v>
+        <v>912</v>
       </c>
       <c r="B99" s="32" t="s">
-        <v>1013</v>
+        <v>913</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>1014</v>
+        <v>914</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>1015</v>
+        <v>915</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36629,17 +35836,17 @@
     <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="30"/>
       <c r="B101" s="31" t="s">
-        <v>1016</v>
+        <v>916</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>971</v>
+        <v>871</v>
       </c>
       <c r="D101" s="30"/>
     </row>
     <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="30"/>
       <c r="B102" s="34" t="s">
-        <v>1017</v>
+        <v>917</v>
       </c>
       <c r="C102" s="35" t="s">
         <v>54</v>
@@ -36659,267 +35866,267 @@
     <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="30"/>
       <c r="B104" s="35" t="s">
-        <v>1018</v>
+        <v>918</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>1019</v>
+        <v>919</v>
       </c>
       <c r="D104" s="30"/>
     </row>
     <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
       <c r="B105" s="35" t="s">
-        <v>1020</v>
+        <v>920</v>
       </c>
       <c r="C105" s="35" t="s">
-        <v>1021</v>
+        <v>921</v>
       </c>
       <c r="D105" s="30"/>
     </row>
     <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="30"/>
       <c r="B106" s="35" t="s">
-        <v>1022</v>
+        <v>922</v>
       </c>
       <c r="C106" s="35" t="s">
-        <v>1023</v>
+        <v>923</v>
       </c>
       <c r="D106" s="30"/>
     </row>
     <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="30"/>
       <c r="B107" s="35" t="s">
-        <v>1024</v>
+        <v>924</v>
       </c>
       <c r="C107" s="35" t="s">
-        <v>1025</v>
+        <v>925</v>
       </c>
       <c r="D107" s="30"/>
     </row>
     <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="30"/>
       <c r="B108" s="35" t="s">
-        <v>1026</v>
+        <v>926</v>
       </c>
       <c r="C108" s="35" t="s">
-        <v>1027</v>
+        <v>927</v>
       </c>
       <c r="D108" s="30"/>
     </row>
     <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="30"/>
       <c r="B109" s="35" t="s">
-        <v>1028</v>
+        <v>928</v>
       </c>
       <c r="C109" s="35" t="s">
-        <v>1029</v>
+        <v>929</v>
       </c>
       <c r="D109" s="30"/>
     </row>
     <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="30"/>
       <c r="B110" s="35" t="s">
-        <v>1030</v>
+        <v>930</v>
       </c>
       <c r="C110" s="35" t="s">
-        <v>1031</v>
+        <v>931</v>
       </c>
       <c r="D110" s="30"/>
     </row>
     <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="30"/>
       <c r="B111" s="35" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="C111" s="35" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="D111" s="30"/>
     </row>
     <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="30"/>
       <c r="B112" s="35" t="s">
-        <v>1032</v>
+        <v>932</v>
       </c>
       <c r="C112" s="35" t="s">
-        <v>1033</v>
+        <v>933</v>
       </c>
       <c r="D112" s="30"/>
     </row>
     <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="30"/>
       <c r="B113" s="35" t="s">
-        <v>1034</v>
+        <v>934</v>
       </c>
       <c r="C113" s="35" t="s">
-        <v>1035</v>
+        <v>935</v>
       </c>
       <c r="D113" s="30"/>
     </row>
     <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="30"/>
       <c r="B114" s="35" t="s">
-        <v>1036</v>
+        <v>936</v>
       </c>
       <c r="C114" s="35" t="s">
-        <v>1037</v>
+        <v>937</v>
       </c>
       <c r="D114" s="30"/>
     </row>
     <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="30"/>
       <c r="B115" s="35" t="s">
-        <v>1038</v>
+        <v>938</v>
       </c>
       <c r="C115" s="35" t="s">
-        <v>1039</v>
+        <v>939</v>
       </c>
       <c r="D115" s="30"/>
     </row>
     <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="30"/>
       <c r="B116" s="35" t="s">
-        <v>1040</v>
+        <v>940</v>
       </c>
       <c r="C116" s="35" t="s">
-        <v>1041</v>
+        <v>941</v>
       </c>
       <c r="D116" s="30"/>
     </row>
     <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="30"/>
       <c r="B117" s="35" t="s">
-        <v>1042</v>
+        <v>942</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>1043</v>
+        <v>943</v>
       </c>
       <c r="D117" s="30"/>
     </row>
     <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="30"/>
       <c r="B118" s="35" t="s">
-        <v>1044</v>
+        <v>944</v>
       </c>
       <c r="C118" s="35" t="s">
-        <v>1045</v>
+        <v>945</v>
       </c>
       <c r="D118" s="30"/>
     </row>
     <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="30"/>
       <c r="B119" s="35" t="s">
-        <v>1046</v>
+        <v>946</v>
       </c>
       <c r="C119" s="35" t="s">
-        <v>1047</v>
+        <v>947</v>
       </c>
       <c r="D119" s="30"/>
     </row>
     <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="30"/>
       <c r="B120" s="35" t="s">
-        <v>1048</v>
+        <v>948</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>1049</v>
+        <v>949</v>
       </c>
       <c r="D120" s="30"/>
     </row>
     <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="30"/>
       <c r="B121" s="35" t="s">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="C121" s="35" t="s">
-        <v>1051</v>
+        <v>951</v>
       </c>
       <c r="D121" s="30"/>
     </row>
     <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="30"/>
       <c r="B122" s="35" t="s">
-        <v>1052</v>
+        <v>952</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>1053</v>
+        <v>953</v>
       </c>
       <c r="D122" s="30"/>
     </row>
     <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="30"/>
       <c r="B123" s="35" t="s">
-        <v>1054</v>
+        <v>954</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>1055</v>
+        <v>955</v>
       </c>
       <c r="D123" s="30"/>
     </row>
     <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="30"/>
       <c r="B124" s="35" t="s">
-        <v>1056</v>
+        <v>956</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>1057</v>
+        <v>957</v>
       </c>
       <c r="D124" s="30"/>
     </row>
     <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="30"/>
       <c r="B125" s="35" t="s">
-        <v>1058</v>
+        <v>958</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>1059</v>
+        <v>959</v>
       </c>
       <c r="D125" s="30"/>
     </row>
     <row r="126" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="30"/>
       <c r="B126" s="35" t="s">
-        <v>1060</v>
+        <v>960</v>
       </c>
       <c r="C126" s="35" t="s">
-        <v>1061</v>
+        <v>961</v>
       </c>
       <c r="D126" s="30"/>
     </row>
     <row r="127" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="30"/>
       <c r="B127" s="35" t="s">
-        <v>1062</v>
+        <v>962</v>
       </c>
       <c r="C127" s="35" t="s">
-        <v>1063</v>
+        <v>963</v>
       </c>
       <c r="D127" s="30"/>
     </row>
     <row r="128" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="30"/>
       <c r="B128" s="35" t="s">
-        <v>1064</v>
+        <v>964</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>1065</v>
+        <v>965</v>
       </c>
       <c r="D128" s="30"/>
     </row>
     <row r="129" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="30"/>
       <c r="B129" s="36" t="s">
-        <v>1066</v>
+        <v>966</v>
       </c>
       <c r="C129" s="36" t="s">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="D129" s="30"/>
     </row>
     <row r="130" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="30"/>
       <c r="B130" s="36" t="s">
-        <v>1068</v>
+        <v>968</v>
       </c>
       <c r="C130" s="36" t="s">
         <v>213</v>
@@ -36929,30 +36136,30 @@
     <row r="131" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="30"/>
       <c r="B131" s="36" t="s">
-        <v>1069</v>
+        <v>969</v>
       </c>
       <c r="C131" s="36" t="s">
-        <v>1069</v>
+        <v>969</v>
       </c>
       <c r="D131" s="30"/>
     </row>
     <row r="132" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="30"/>
       <c r="B132" s="36" t="s">
-        <v>1070</v>
+        <v>970</v>
       </c>
       <c r="C132" s="36" t="s">
-        <v>1070</v>
+        <v>970</v>
       </c>
       <c r="D132" s="30"/>
     </row>
     <row r="133" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="30"/>
       <c r="B133" s="36" t="s">
-        <v>1071</v>
+        <v>971</v>
       </c>
       <c r="C133" s="36" t="s">
-        <v>1071</v>
+        <v>971</v>
       </c>
       <c r="D133" s="30"/>
     </row>
@@ -36969,200 +36176,200 @@
     <row r="135" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="30"/>
       <c r="B135" s="36" t="s">
-        <v>1072</v>
+        <v>972</v>
       </c>
       <c r="C135" s="36" t="s">
-        <v>1073</v>
+        <v>973</v>
       </c>
       <c r="D135" s="30"/>
     </row>
     <row r="136" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="30"/>
       <c r="B136" s="36" t="s">
-        <v>1074</v>
+        <v>974</v>
       </c>
       <c r="C136" s="36" t="s">
-        <v>1074</v>
+        <v>974</v>
       </c>
       <c r="D136" s="30"/>
     </row>
     <row r="137" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="30"/>
       <c r="B137" s="36" t="s">
-        <v>1075</v>
+        <v>975</v>
       </c>
       <c r="C137" s="36" t="s">
-        <v>1076</v>
+        <v>976</v>
       </c>
       <c r="D137" s="30"/>
     </row>
     <row r="138" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="30"/>
       <c r="B138" s="36" t="s">
-        <v>1077</v>
+        <v>977</v>
       </c>
       <c r="C138" s="36" t="s">
-        <v>1078</v>
+        <v>978</v>
       </c>
       <c r="D138" s="30"/>
     </row>
     <row r="139" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="30"/>
       <c r="B139" s="36" t="s">
-        <v>1079</v>
+        <v>979</v>
       </c>
       <c r="C139" s="36" t="s">
-        <v>1080</v>
+        <v>980</v>
       </c>
       <c r="D139" s="30"/>
     </row>
     <row r="140" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="30"/>
       <c r="B140" s="36" t="s">
-        <v>1081</v>
+        <v>981</v>
       </c>
       <c r="C140" s="36" t="s">
-        <v>1082</v>
+        <v>982</v>
       </c>
       <c r="D140" s="30"/>
     </row>
     <row r="141" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="30"/>
       <c r="B141" s="36" t="s">
-        <v>1083</v>
+        <v>983</v>
       </c>
       <c r="C141" s="36" t="s">
-        <v>1084</v>
+        <v>984</v>
       </c>
       <c r="D141" s="30"/>
     </row>
     <row r="142" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="30"/>
       <c r="B142" s="36" t="s">
-        <v>1085</v>
+        <v>985</v>
       </c>
       <c r="C142" s="36" t="s">
-        <v>1086</v>
+        <v>986</v>
       </c>
       <c r="D142" s="30"/>
     </row>
     <row r="143" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="30"/>
       <c r="B143" s="36" t="s">
-        <v>1087</v>
+        <v>987</v>
       </c>
       <c r="C143" s="36" t="s">
-        <v>1088</v>
+        <v>988</v>
       </c>
       <c r="D143" s="30"/>
     </row>
     <row r="144" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="30"/>
       <c r="B144" s="36" t="s">
-        <v>1089</v>
+        <v>989</v>
       </c>
       <c r="C144" s="36" t="s">
-        <v>1090</v>
+        <v>990</v>
       </c>
       <c r="D144" s="30"/>
     </row>
     <row r="145" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="30"/>
       <c r="B145" s="36" t="s">
-        <v>1091</v>
+        <v>991</v>
       </c>
       <c r="C145" s="36" t="s">
-        <v>1092</v>
+        <v>992</v>
       </c>
       <c r="D145" s="30"/>
     </row>
     <row r="146" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="30"/>
       <c r="B146" s="36" t="s">
-        <v>1093</v>
+        <v>993</v>
       </c>
       <c r="C146" s="36" t="s">
-        <v>1094</v>
+        <v>994</v>
       </c>
       <c r="D146" s="30"/>
     </row>
     <row r="147" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="30"/>
       <c r="B147" s="36" t="s">
-        <v>1095</v>
+        <v>995</v>
       </c>
       <c r="C147" s="36" t="s">
-        <v>1096</v>
+        <v>996</v>
       </c>
       <c r="D147" s="30"/>
     </row>
     <row r="148" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="30"/>
       <c r="B148" s="36" t="s">
-        <v>1097</v>
+        <v>997</v>
       </c>
       <c r="C148" s="36" t="s">
-        <v>1098</v>
+        <v>998</v>
       </c>
       <c r="D148" s="30"/>
     </row>
     <row r="149" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="30"/>
       <c r="B149" s="36" t="s">
-        <v>1099</v>
+        <v>999</v>
       </c>
       <c r="C149" s="36" t="s">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="D149" s="30"/>
     </row>
     <row r="150" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="30"/>
       <c r="B150" s="36" t="s">
-        <v>1101</v>
+        <v>1001</v>
       </c>
       <c r="C150" s="36" t="s">
-        <v>1102</v>
+        <v>1002</v>
       </c>
       <c r="D150" s="30"/>
     </row>
     <row r="151" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="30"/>
       <c r="B151" s="36" t="s">
-        <v>1103</v>
+        <v>1003</v>
       </c>
       <c r="C151" s="36" t="s">
-        <v>1104</v>
+        <v>1004</v>
       </c>
       <c r="D151" s="30"/>
     </row>
     <row r="152" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="30"/>
       <c r="B152" s="36" t="s">
-        <v>1105</v>
+        <v>1005</v>
       </c>
       <c r="C152" s="36" t="s">
-        <v>1106</v>
+        <v>1006</v>
       </c>
       <c r="D152" s="30"/>
     </row>
     <row r="153" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="30"/>
       <c r="B153" s="36" t="s">
-        <v>1107</v>
+        <v>1007</v>
       </c>
       <c r="C153" s="36" t="s">
-        <v>1108</v>
+        <v>1008</v>
       </c>
       <c r="D153" s="30"/>
     </row>
     <row r="154" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="30"/>
       <c r="B154" s="36" t="s">
-        <v>1109</v>
+        <v>1009</v>
       </c>
       <c r="C154" s="36" t="s">
-        <v>1109</v>
+        <v>1009</v>
       </c>
       <c r="D154" s="30"/>
     </row>
@@ -38421,59 +37628,59 @@
     <mergeCell ref="A83:B83"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:AD5">
-    <cfRule type="expression" dxfId="41" priority="15" stopIfTrue="1">
-      <formula>$A5="comments"</formula>
+    <cfRule type="expression" dxfId="41" priority="32" stopIfTrue="1">
+      <formula>$A5="begin group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="16" stopIfTrue="1">
-      <formula>OR($A5="audio", $A5="video")</formula>
+    <cfRule type="expression" dxfId="40" priority="31" stopIfTrue="1">
+      <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="17" stopIfTrue="1">
-      <formula>$A5="image"</formula>
+    <cfRule type="expression" dxfId="39" priority="30" stopIfTrue="1">
+      <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="18" stopIfTrue="1">
-      <formula>OR($A5="date", $A5="datetime")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="19" stopIfTrue="1">
-      <formula>OR($A5="calculate", $A5="calculate_here")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="20" stopIfTrue="1">
-      <formula>$A5="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="21" stopIfTrue="1">
-      <formula>$A5="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="22" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="23" stopIfTrue="1">
-      <formula>OR($A5="audio audit", $A5="text audit")</formula>
+    <cfRule type="expression" dxfId="37" priority="29" stopIfTrue="1">
+      <formula>$A5="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="28" stopIfTrue="1">
+      <formula>$A5="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="27" stopIfTrue="1">
+      <formula>$A5="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="26" stopIfTrue="1">
+      <formula>$A5="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="25" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="24" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="25" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
+    <cfRule type="expression" dxfId="31" priority="23" stopIfTrue="1">
+      <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26" stopIfTrue="1">
-      <formula>$A5="decimal"</formula>
+    <cfRule type="expression" dxfId="30" priority="15" stopIfTrue="1">
+      <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="27" stopIfTrue="1">
-      <formula>$A5="integer"</formula>
+    <cfRule type="expression" dxfId="29" priority="16" stopIfTrue="1">
+      <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28" stopIfTrue="1">
-      <formula>$A5="text"</formula>
+    <cfRule type="expression" dxfId="28" priority="17" stopIfTrue="1">
+      <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
-      <formula>$A5="end repeat"</formula>
+    <cfRule type="expression" dxfId="27" priority="18" stopIfTrue="1">
+      <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30" stopIfTrue="1">
-      <formula>$A5="begin repeat"</formula>
+    <cfRule type="expression" dxfId="26" priority="19" stopIfTrue="1">
+      <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="31" stopIfTrue="1">
-      <formula>$A5="end group"</formula>
+    <cfRule type="expression" dxfId="25" priority="20" stopIfTrue="1">
+      <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="32" stopIfTrue="1">
-      <formula>$A5="begin group"</formula>
+    <cfRule type="expression" dxfId="24" priority="21" stopIfTrue="1">
+      <formula>$A5="barcode"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 H5">
@@ -38497,14 +37704,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="19" priority="6" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
+    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
+      <formula>$A5="image"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="12" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
-      <formula>$A5="image"</formula>
+    <cfRule type="expression" dxfId="17" priority="6" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 L5 S5">
@@ -38513,17 +37720,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="15" priority="8" stopIfTrue="1">
-      <formula>$A5="note"</formula>
+    <cfRule type="expression" dxfId="15" priority="14" stopIfTrue="1">
+      <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
+      <formula>$A5="geopoint"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="9" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="10" stopIfTrue="1">
-      <formula>$A5="geopoint"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
-      <formula>OR($A5="audio", $A5="video")</formula>
+    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
+      <formula>$A5="note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:F5 H5">
@@ -38532,11 +37739,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:F5 I5:K5">
-    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
+      <formula>$A5="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
       <formula>$A5="integer"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
-      <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
@@ -38587,7 +37794,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
-        <v>1110</v>
+        <v>1010</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="8"/>
@@ -38645,7 +37852,7 @@
     </row>
     <row r="3" spans="1:26" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>1111</v>
+        <v>1011</v>
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="8"/>
@@ -38703,25 +37910,25 @@
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>834</v>
+        <v>734</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>835</v>
+        <v>735</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>1112</v>
+        <v>1012</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -38745,25 +37952,25 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>1113</v>
+        <v>1013</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>1114</v>
+        <v>1014</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>1115</v>
+        <v>1015</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>1116</v>
+        <v>1016</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>1117</v>
+        <v>1017</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>1118</v>
+        <v>1018</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>1119</v>
+        <v>1019</v>
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="38"/>
@@ -39804,7 +39011,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
-        <v>1120</v>
+        <v>1020</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="39"/>
@@ -39862,7 +39069,7 @@
     </row>
     <row r="3" spans="1:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>1121</v>
+        <v>1021</v>
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="39"/>
@@ -39920,22 +39127,22 @@
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>819</v>
+        <v>719</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>820</v>
+        <v>720</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>821</v>
+        <v>721</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>822</v>
+        <v>722</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>823</v>
+        <v>723</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>824</v>
+        <v>724</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="20"/>
@@ -39960,22 +39167,22 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>1122</v>
+        <v>1022</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>1123</v>
+        <v>1023</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>1124</v>
+        <v>1024</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>1125</v>
+        <v>1025</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>1126</v>
+        <v>1026</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>1127</v>
+        <v>1027</v>
       </c>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
